--- a/pingfen.xlsx
+++ b/pingfen.xlsx
@@ -2597,7 +2597,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>62</v>
@@ -2606,7 +2606,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>62</v>
@@ -2624,7 +2624,7 @@
         <v>64</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>62</v>
@@ -2633,7 +2633,7 @@
         <v>62</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>62</v>
@@ -2642,7 +2642,7 @@
         <v>62</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>62</v>
@@ -2651,7 +2651,7 @@
         <v>62</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X19" s="8" t="s">
         <v>62</v>
@@ -2660,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA19" s="8" t="s">
         <v>62</v>
@@ -2669,7 +2669,7 @@
         <v>62</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD19" s="8" t="s">
         <v>62</v>

--- a/pingfen.xlsx
+++ b/pingfen.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -215,40 +215,46 @@
     <t>测评对象1</t>
   </si>
   <si>
-    <t>天津市武清区雍阳西道118号武清区政府C楼信息机房</t>
+    <t>是发送到发</t>
   </si>
   <si>
     <t>×</t>
   </si>
   <si>
-    <t>机房二</t>
+    <t>互联网运维人员PC端与系统之间的运维通信信道</t>
   </si>
   <si>
     <t>√</t>
   </si>
   <si>
-    <t>政务外网PC浏览器与系统之间的通信信道</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>互联网移动APP与系统之间的通信信道</t>
-  </si>
-  <si>
-    <t>运维人员PC端与系统之间的通信信道</t>
-  </si>
-  <si>
-    <t>专网PC客户端与系统之间的通信信道</t>
-  </si>
-  <si>
-    <t>U盘证书通道</t>
-  </si>
-  <si>
-    <t>虚拟化服务器</t>
-  </si>
-  <si>
-    <t>应用服务器</t>
+    <t>互联网PC浏览器与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>互联网PC客户端与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>互联网移动端APP与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>互联网移动端微信小程序与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>办公内网PC浏览器与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>办公内网PC客户端与系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>业务服务器</t>
+  </si>
+  <si>
+    <t>数据库服务器</t>
+  </si>
+  <si>
+    <t>SSL VPN</t>
   </si>
   <si>
     <t>堡垒机</t>
@@ -263,16 +269,7 @@
     <t>SSL VPN安全网关</t>
   </si>
   <si>
-    <t>时间戳服务器</t>
-  </si>
-  <si>
-    <t>协同签名系统</t>
-  </si>
-  <si>
-    <t>密钥管理系统</t>
-  </si>
-  <si>
-    <t>武清政务云</t>
+    <t>业务1</t>
   </si>
   <si>
     <t>业务2</t>
@@ -977,9 +974,7 @@
       <c r="G2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1197,15 +1192,9 @@
       <c r="G4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1269,15 +1258,9 @@
       <c r="G5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1341,15 +1324,9 @@
       <c r="G6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1493,34 +1470,38 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1759,12 +1740,24 @@
       <c r="S10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="T10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
@@ -1849,12 +1842,24 @@
       <c r="S11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
+      <c r="T11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
@@ -1939,12 +1944,24 @@
       <c r="S12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="T12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
@@ -2029,12 +2046,24 @@
       <c r="S13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
+      <c r="T13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
@@ -2075,56 +2104,68 @@
         <v>18</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
@@ -2253,48 +2294,44 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -2501,22 +2538,22 @@
         <v>62</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>62</v>
@@ -2545,24 +2582,12 @@
       <c r="Y18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Z18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
@@ -2618,19 +2643,19 @@
         <v>64</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>64</v>
@@ -2659,24 +2684,12 @@
       <c r="Y19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Z19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
@@ -2729,22 +2742,22 @@
         <v>62</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>64</v>
@@ -2773,24 +2786,12 @@
       <c r="Y20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE20" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
@@ -2825,86 +2826,74 @@
         <v>4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
@@ -2957,22 +2946,22 @@
         <v>64</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>64</v>
@@ -3001,24 +2990,12 @@
       <c r="Y22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE22" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
@@ -3071,22 +3048,22 @@
         <v>62</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>64</v>
@@ -3115,24 +3092,12 @@
       <c r="Y23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
@@ -3255,12 +3220,12 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -3975,22 +3940,22 @@
         <v>4</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
